--- a/runforrole.xlsx
+++ b/runforrole.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeeps3/Desktop/InternProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D01600-292E-B84D-BA1E-20F999EC8288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9105D8D-A683-774B-ADE3-A0D1A54BA2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20880" windowHeight="9200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster Roles" sheetId="1" r:id="rId1"/>
@@ -1265,8 +1265,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1314,34 +1314,34 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1350,22 +1350,25 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1374,442 +1377,448 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="D20" t="s">
         <v>44</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>248</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>273</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>282</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>284</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>287</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="D30" t="s">
         <v>44</v>
@@ -1818,271 +1827,331 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
+      <c r="F31" t="s">
+        <v>118</v>
+      </c>
       <c r="G31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
+      <c r="F32" t="s">
+        <v>118</v>
+      </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>119</v>
+      </c>
+      <c r="H32" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
+      <c r="F33" t="s">
+        <v>118</v>
+      </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>119</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>265</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
+      <c r="F34" t="s">
+        <v>118</v>
+      </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>119</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>271</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
+      <c r="F35" t="s">
+        <v>118</v>
+      </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>119</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>274</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
+      <c r="F36" t="s">
+        <v>118</v>
+      </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>119</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>202</v>
+      </c>
+      <c r="H38" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>208</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>208</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>208</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>208</v>
+      </c>
+      <c r="H42" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>240</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>240</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" t="s">
-        <v>40</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="H46" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="H47" t="s">
         <v>31</v>
@@ -2091,28 +2160,28 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E49">
         <v>10</v>
@@ -2121,91 +2190,94 @@
         <v>58</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+      <c r="H50" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H51" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H53" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D54" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
         <v>58</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>11</v>
       </c>
       <c r="H54" t="s">
         <v>15</v>
@@ -2214,10 +2286,10 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="E55">
         <v>10</v>
@@ -2226,178 +2298,178 @@
         <v>58</v>
       </c>
       <c r="H55" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" t="s">
-        <v>94</v>
+      <c r="B56" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H57" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="D58" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="D59" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="D60" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G60" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="H60" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" t="s">
-        <v>109</v>
+      <c r="B63" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H63" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>277</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H64" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E65">
         <v>10</v>
@@ -2406,40 +2478,40 @@
         <v>58</v>
       </c>
       <c r="H65" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+      <c r="H66" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="F67" t="s">
-        <v>118</v>
-      </c>
       <c r="G67" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
@@ -2448,16 +2520,16 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H68" t="s">
         <v>15</v>
@@ -2466,64 +2538,61 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
-      </c>
-      <c r="H69" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="E71">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2532,16 +2601,16 @@
         <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="D73" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2550,52 +2619,46 @@
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
-      </c>
-      <c r="H74" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
-      </c>
-      <c r="H75" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
-        <v>130</v>
+      <c r="B76" t="s">
+        <v>34</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2604,16 +2667,16 @@
         <v>11</v>
       </c>
       <c r="H76" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2622,16 +2685,16 @@
         <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2640,16 +2703,16 @@
         <v>11</v>
       </c>
       <c r="H78" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="D79" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2658,52 +2721,52 @@
         <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="D80" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E80">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="D81" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="D82" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2712,13 +2775,13 @@
         <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="D83" t="s">
         <v>44</v>
@@ -2736,7 +2799,7 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="D84" t="s">
         <v>44</v>
@@ -2754,7 +2817,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="D85" t="s">
         <v>44</v>
@@ -2766,13 +2829,13 @@
         <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="D86" t="s">
         <v>44</v>
@@ -2784,13 +2847,13 @@
         <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="D87" t="s">
         <v>44</v>
@@ -2802,13 +2865,13 @@
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="D88" t="s">
         <v>44</v>
@@ -2820,13 +2883,13 @@
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="D89" t="s">
         <v>44</v>
@@ -2836,12 +2899,15 @@
       </c>
       <c r="G89" t="s">
         <v>11</v>
+      </c>
+      <c r="H89" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="D90" t="s">
         <v>44</v>
@@ -2853,16 +2919,16 @@
         <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="D91" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2871,16 +2937,16 @@
         <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="D92" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2889,175 +2955,148 @@
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="D93" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
-      </c>
-      <c r="H93" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="D94" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="G94" t="s">
         <v>11</v>
-      </c>
-      <c r="H94" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="D95" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="G95" t="s">
         <v>11</v>
-      </c>
-      <c r="H95" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="1" t="s">
-        <v>156</v>
+      <c r="B96" t="s">
+        <v>65</v>
       </c>
       <c r="D96" t="s">
         <v>44</v>
       </c>
       <c r="E96">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>58</v>
-      </c>
-      <c r="H96" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="D97" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="G97" t="s">
         <v>11</v>
-      </c>
-      <c r="H97" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="D98" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
-      </c>
-      <c r="H98" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="D99" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="G99" t="s">
         <v>11</v>
-      </c>
-      <c r="H99" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="D100" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="E100">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>58</v>
-      </c>
-      <c r="H100" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="D101" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>123</v>
-      </c>
-      <c r="H101" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="D102" t="s">
         <v>44</v>
@@ -3067,33 +3106,27 @@
       </c>
       <c r="G102" t="s">
         <v>11</v>
-      </c>
-      <c r="H102" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="D103" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="G103" t="s">
         <v>11</v>
-      </c>
-      <c r="H103" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="D104" t="s">
         <v>44</v>
@@ -3103,15 +3136,12 @@
       </c>
       <c r="G104" t="s">
         <v>11</v>
-      </c>
-      <c r="H104" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="D105" t="s">
         <v>44</v>
@@ -3126,7 +3156,7 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="D106" t="s">
         <v>44</v>
@@ -3136,36 +3166,33 @@
       </c>
       <c r="G106" t="s">
         <v>11</v>
-      </c>
-      <c r="H106" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="D107" t="s">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="E107">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H107" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="D108" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -3174,16 +3201,16 @@
         <v>11</v>
       </c>
       <c r="H108" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="D109" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -3192,16 +3219,16 @@
         <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="D110" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -3210,52 +3237,49 @@
         <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="D111" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="G111" t="s">
         <v>11</v>
-      </c>
-      <c r="H111" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="D112" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="D113" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -3264,49 +3288,52 @@
         <v>11</v>
       </c>
       <c r="H113" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="D114" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="D115" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
+      </c>
+      <c r="H115" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="D116" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -3315,16 +3342,16 @@
         <v>11</v>
       </c>
       <c r="H116" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="D117" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -3333,52 +3360,52 @@
         <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="D118" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="E118">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H118" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="D119" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="E119">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H119" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="D120" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -3387,34 +3414,31 @@
         <v>11</v>
       </c>
       <c r="H120" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="D121" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
-      </c>
-      <c r="H121" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="D122" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -3423,16 +3447,16 @@
         <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="D123" t="s">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -3441,22 +3465,22 @@
         <v>11</v>
       </c>
       <c r="H123" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="D124" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="H124" t="s">
         <v>80</v>
@@ -3465,10 +3489,10 @@
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="D125" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -3477,16 +3501,16 @@
         <v>11</v>
       </c>
       <c r="H125" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="B126" t="s">
-        <v>204</v>
+      <c r="B126" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D126" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -3495,22 +3519,22 @@
         <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="D127" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="H127" t="s">
         <v>12</v>
@@ -3519,10 +3543,10 @@
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" t="s">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="D128" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -3531,37 +3555,34 @@
         <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="D129" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
-      <c r="F129" t="s">
-        <v>118</v>
-      </c>
       <c r="G129" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" t="s">
-        <v>212</v>
+        <v>139</v>
       </c>
       <c r="D130" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -3570,16 +3591,16 @@
         <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="D131" t="s">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3588,16 +3609,16 @@
         <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="D132" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -3606,16 +3627,16 @@
         <v>11</v>
       </c>
       <c r="H132" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="D133" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3630,7 +3651,7 @@
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" t="s">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="D134" t="s">
         <v>44</v>
@@ -3648,7 +3669,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="D135" t="s">
         <v>44</v>
@@ -3660,16 +3681,16 @@
         <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3678,181 +3699,178 @@
         <v>11</v>
       </c>
       <c r="H136" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="D137" t="s">
         <v>44</v>
       </c>
       <c r="E137">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>58</v>
-      </c>
-      <c r="H137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="D138" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E138">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" t="s">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="D139" t="s">
-        <v>226</v>
+        <v>58</v>
       </c>
       <c r="E139">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="D140" t="s">
         <v>58</v>
       </c>
       <c r="E140">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G140" t="s">
         <v>11</v>
       </c>
       <c r="H140" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="E141">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H141" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="D142" t="s">
         <v>58</v>
       </c>
       <c r="E142">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H142" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" t="s">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="D143" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="E143">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G143" t="s">
         <v>11</v>
       </c>
       <c r="H143" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D144" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="E144">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H144" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="D145" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="E145">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G145" t="s">
         <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D146" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E146">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G146" t="s">
         <v>11</v>
@@ -3864,205 +3882,202 @@
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E147">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H147" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="D148" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="E148">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H148" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" t="s">
-        <v>238</v>
+        <v>167</v>
       </c>
       <c r="D149" t="s">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="E149">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="H149" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="D150" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E150">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>208</v>
-      </c>
-      <c r="H150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="D151" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E151">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H151" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
       <c r="D152" t="s">
-        <v>244</v>
+        <v>93</v>
       </c>
       <c r="E152">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H152" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="D153" t="s">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="E153">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H153" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="D154" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="E154">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H154" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="D155" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="E155">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H155" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="D156" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="E156">
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="H156" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="D157" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E157">
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="D158" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -4071,130 +4086,124 @@
         <v>11</v>
       </c>
       <c r="H158" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="D159" t="s">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="E159">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H159" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="D160" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="E160">
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="H160" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="D161" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="E161">
         <v>0</v>
       </c>
-      <c r="F161" t="s">
-        <v>118</v>
-      </c>
       <c r="G161" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="H161" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="D162" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="E162">
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H162" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="D163" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="E163">
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H163" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="D164" t="s">
-        <v>265</v>
+        <v>96</v>
       </c>
       <c r="E164">
         <v>0</v>
       </c>
-      <c r="F164" t="s">
-        <v>118</v>
-      </c>
       <c r="G164" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="H164" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="D165" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -4203,127 +4212,124 @@
         <v>11</v>
       </c>
       <c r="H165" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="D166" t="s">
-        <v>268</v>
+        <v>110</v>
       </c>
       <c r="E166">
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="H166" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="D167" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="E167">
         <v>0</v>
       </c>
       <c r="G167" t="s">
         <v>11</v>
+      </c>
+      <c r="H167" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" t="s">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="D168" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H168" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="D169" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="E169">
         <v>0</v>
       </c>
-      <c r="F169" t="s">
-        <v>118</v>
-      </c>
       <c r="G169" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="H169" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="D170" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="E170">
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H170" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="D171" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
-      <c r="F171" t="s">
-        <v>118</v>
-      </c>
       <c r="G171" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="H171" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="D172" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -4332,194 +4338,191 @@
         <v>11</v>
       </c>
       <c r="H172" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
-      <c r="B173" s="1" t="s">
-        <v>276</v>
+      <c r="B173" t="s">
+        <v>222</v>
       </c>
       <c r="D173" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="E173">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H173" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="D174" t="s">
-        <v>278</v>
+        <v>58</v>
       </c>
       <c r="E174">
         <v>10</v>
       </c>
       <c r="G174" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H174" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D175" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H175" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="D176" t="s">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G176" t="s">
         <v>11</v>
       </c>
       <c r="H176" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="D177" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E177">
         <v>10</v>
       </c>
       <c r="G177" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H177" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="D178" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="E178">
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H178" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="D179" t="s">
-        <v>285</v>
+        <v>26</v>
       </c>
       <c r="E179">
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H179" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="D180" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="E180">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>58</v>
-      </c>
-      <c r="H180" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D181" t="s">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="E181">
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H181" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D182" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="E182">
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H182" t="s">
         <v>80</v>
       </c>
-      <c r="I182" t="s">
-        <v>290</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="G1:G176" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I182">
+    <sortCondition descending="1" ref="G2:G182"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
